--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AR2_50_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AR2_50_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5149680659622189</v>
+        <v>0.5692650327263563</v>
       </c>
       <c r="C2">
-        <v>0.5621490832682646</v>
+        <v>0.5692650327263563</v>
       </c>
       <c r="D2">
-        <v>0.398099301564984</v>
+        <v>0.3908711553892542</v>
       </c>
       <c r="E2">
-        <v>0.6309511086962158</v>
+        <v>0.6251968932978268</v>
       </c>
       <c r="F2">
-        <v>0.3773599919233752</v>
+        <v>0.2682304822149452</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.374392881790439</v>
+        <v>0.3997456872501602</v>
       </c>
       <c r="C3">
-        <v>0.3867115873339156</v>
+        <v>0.4033467742491634</v>
       </c>
       <c r="D3">
-        <v>0.2095230518030864</v>
+        <v>0.2178465991588477</v>
       </c>
       <c r="E3">
-        <v>0.4577368805362819</v>
+        <v>0.4667403980360472</v>
       </c>
       <c r="F3">
-        <v>0.2732908152567819</v>
+        <v>0.2507737693766841</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3047392045302661</v>
+        <v>0.3400043916411057</v>
       </c>
       <c r="C4">
-        <v>0.3200881600767664</v>
+        <v>0.3606492384221238</v>
       </c>
       <c r="D4">
-        <v>0.1574586298430795</v>
+        <v>0.1784350047575419</v>
       </c>
       <c r="E4">
-        <v>0.3968105717380517</v>
+        <v>0.4224156776891003</v>
       </c>
       <c r="F4">
-        <v>0.2645285762523938</v>
+        <v>0.261809129132386</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4461589838474358</v>
+        <v>0.4288908803047028</v>
       </c>
       <c r="C5">
-        <v>0.4461589838474358</v>
+        <v>0.4288908803047028</v>
       </c>
       <c r="D5">
-        <v>0.2557785926581425</v>
+        <v>0.2376241711832545</v>
       </c>
       <c r="E5">
-        <v>0.5057455809576021</v>
+        <v>0.4874670975391617</v>
       </c>
       <c r="F5">
-        <v>0.248751253168957</v>
+        <v>0.242990663137872</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.410700336148952</v>
+        <v>0.3767221034172891</v>
       </c>
       <c r="C6">
-        <v>0.4135187035930826</v>
+        <v>0.3801506752190701</v>
       </c>
       <c r="D6">
-        <v>0.2265423492358624</v>
+        <v>0.1848819966348901</v>
       </c>
       <c r="E6">
-        <v>0.4759646512461428</v>
+        <v>0.429979065344919</v>
       </c>
       <c r="F6">
-        <v>0.2522981201580784</v>
+        <v>0.2184858333361773</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3494740007469088</v>
+        <v>0.3516807317407905</v>
       </c>
       <c r="C7">
-        <v>0.3597227794264332</v>
+        <v>0.358904738120446</v>
       </c>
       <c r="D7">
-        <v>0.1638948727701445</v>
+        <v>0.1712159718543759</v>
       </c>
       <c r="E7">
-        <v>0.4048393172236913</v>
+        <v>0.4137825175794355</v>
       </c>
       <c r="F7">
-        <v>0.2154138022300699</v>
+        <v>0.2312546521125961</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3706545189354704</v>
+        <v>0.3826977698461033</v>
       </c>
       <c r="C8">
-        <v>0.3734090874777368</v>
+        <v>0.3826977698461033</v>
       </c>
       <c r="D8">
-        <v>0.1807682845776609</v>
+        <v>0.193400430583437</v>
       </c>
       <c r="E8">
-        <v>0.4251685366741769</v>
+        <v>0.4397731580979414</v>
       </c>
       <c r="F8">
-        <v>0.2209218214474817</v>
+        <v>0.2316224700134891</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4298197394642976</v>
+        <v>0.3590813353308283</v>
       </c>
       <c r="C9">
-        <v>0.4298197394642976</v>
+        <v>0.3590813353308283</v>
       </c>
       <c r="D9">
-        <v>0.2205190090366816</v>
+        <v>0.1682323819789578</v>
       </c>
       <c r="E9">
-        <v>0.4695945155521747</v>
+        <v>0.4101614096657044</v>
       </c>
       <c r="F9">
-        <v>0.2071926657105166</v>
+        <v>0.2141069966830871</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2695677751263204</v>
+        <v>0.3470367157308435</v>
       </c>
       <c r="C10">
-        <v>0.2695677751263204</v>
+        <v>0.3470367157308435</v>
       </c>
       <c r="D10">
-        <v>0.07820422228561637</v>
+        <v>0.1621328538698305</v>
       </c>
       <c r="E10">
-        <v>0.2796501784115583</v>
+        <v>0.4026572411739673</v>
       </c>
       <c r="F10">
-        <v>0.09113811139470071</v>
+        <v>0.2236918553848042</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1878533956106533</v>
+        <v>0.308333697360539</v>
       </c>
       <c r="C11">
-        <v>0.1878533956106533</v>
+        <v>0.308333697360539</v>
       </c>
       <c r="D11">
-        <v>0.03528889824245262</v>
+        <v>0.1232078055746762</v>
       </c>
       <c r="E11">
-        <v>0.1878533956106533</v>
+        <v>0.3510096944169437</v>
+      </c>
+      <c r="F11">
+        <v>0.1875437837101504</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AR2_50_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AR2_50_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5692650327263563</v>
+        <v>0.5149680659622189</v>
       </c>
       <c r="C2">
-        <v>0.5692650327263563</v>
+        <v>0.5621490832682646</v>
       </c>
       <c r="D2">
-        <v>0.3908711553892542</v>
+        <v>0.398099301564984</v>
       </c>
       <c r="E2">
-        <v>0.6251968932978268</v>
+        <v>0.6309511086962158</v>
       </c>
       <c r="F2">
-        <v>0.2682304822149452</v>
+        <v>0.3773599919233752</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3997456872501602</v>
+        <v>0.374392881790439</v>
       </c>
       <c r="C3">
-        <v>0.4033467742491634</v>
+        <v>0.3867115873339156</v>
       </c>
       <c r="D3">
-        <v>0.2178465991588477</v>
+        <v>0.2095230518030864</v>
       </c>
       <c r="E3">
-        <v>0.4667403980360472</v>
+        <v>0.4577368805362819</v>
       </c>
       <c r="F3">
-        <v>0.2507737693766841</v>
+        <v>0.2732908152567819</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3400043916411057</v>
+        <v>0.3047392045302661</v>
       </c>
       <c r="C4">
-        <v>0.3606492384221238</v>
+        <v>0.3200881600767664</v>
       </c>
       <c r="D4">
-        <v>0.1784350047575419</v>
+        <v>0.1574586298430795</v>
       </c>
       <c r="E4">
-        <v>0.4224156776891003</v>
+        <v>0.3968105717380517</v>
       </c>
       <c r="F4">
-        <v>0.261809129132386</v>
+        <v>0.2645285762523938</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4288908803047028</v>
+        <v>0.4461589838474358</v>
       </c>
       <c r="C5">
-        <v>0.4288908803047028</v>
+        <v>0.4461589838474358</v>
       </c>
       <c r="D5">
-        <v>0.2376241711832545</v>
+        <v>0.2557785926581425</v>
       </c>
       <c r="E5">
-        <v>0.4874670975391617</v>
+        <v>0.5057455809576021</v>
       </c>
       <c r="F5">
-        <v>0.242990663137872</v>
+        <v>0.248751253168957</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3767221034172891</v>
+        <v>0.410700336148952</v>
       </c>
       <c r="C6">
-        <v>0.3801506752190701</v>
+        <v>0.4135187035930826</v>
       </c>
       <c r="D6">
-        <v>0.1848819966348901</v>
+        <v>0.2265423492358624</v>
       </c>
       <c r="E6">
-        <v>0.429979065344919</v>
+        <v>0.4759646512461428</v>
       </c>
       <c r="F6">
-        <v>0.2184858333361773</v>
+        <v>0.2522981201580784</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3516807317407905</v>
+        <v>0.3494740007469088</v>
       </c>
       <c r="C7">
-        <v>0.358904738120446</v>
+        <v>0.3597227794264332</v>
       </c>
       <c r="D7">
-        <v>0.1712159718543759</v>
+        <v>0.1638948727701445</v>
       </c>
       <c r="E7">
-        <v>0.4137825175794355</v>
+        <v>0.4048393172236913</v>
       </c>
       <c r="F7">
-        <v>0.2312546521125961</v>
+        <v>0.2154138022300699</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3826977698461033</v>
+        <v>0.3706545189354704</v>
       </c>
       <c r="C8">
-        <v>0.3826977698461033</v>
+        <v>0.3734090874777368</v>
       </c>
       <c r="D8">
-        <v>0.193400430583437</v>
+        <v>0.1807682845776609</v>
       </c>
       <c r="E8">
-        <v>0.4397731580979414</v>
+        <v>0.4251685366741769</v>
       </c>
       <c r="F8">
-        <v>0.2316224700134891</v>
+        <v>0.2209218214474817</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3590813353308283</v>
+        <v>0.3834281208488316</v>
       </c>
       <c r="C9">
-        <v>0.3590813353308283</v>
+        <v>0.385141425687041</v>
       </c>
       <c r="D9">
-        <v>0.1682323819789578</v>
+        <v>0.1960677877649145</v>
       </c>
       <c r="E9">
-        <v>0.4101614096657044</v>
+        <v>0.4427954242818171</v>
       </c>
       <c r="F9">
-        <v>0.2141069966830871</v>
+        <v>0.2367654991933658</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3470367157308435</v>
+        <v>0.3533129028593847</v>
       </c>
       <c r="C10">
-        <v>0.3470367157308435</v>
+        <v>0.3533129028593847</v>
       </c>
       <c r="D10">
-        <v>0.1621328538698305</v>
+        <v>0.1644395682562605</v>
       </c>
       <c r="E10">
-        <v>0.4026572411739673</v>
+        <v>0.4055114896723155</v>
       </c>
       <c r="F10">
-        <v>0.2236918553848042</v>
+        <v>0.2149677985595936</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.308333697360539</v>
+        <v>0.3494951052803065</v>
       </c>
       <c r="C11">
-        <v>0.308333697360539</v>
+        <v>0.3494951052803065</v>
       </c>
       <c r="D11">
-        <v>0.1232078055746762</v>
+        <v>0.1636482358169425</v>
       </c>
       <c r="E11">
-        <v>0.3510096944169437</v>
+        <v>0.404534591619731</v>
       </c>
       <c r="F11">
-        <v>0.1875437837101504</v>
+        <v>0.2231629195060417</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AR2_50_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AR2_50_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3834281208488316</v>
+        <v>0.4298197394642976</v>
       </c>
       <c r="C9">
-        <v>0.385141425687041</v>
+        <v>0.4298197394642976</v>
       </c>
       <c r="D9">
-        <v>0.1960677877649145</v>
+        <v>0.2205190090366816</v>
       </c>
       <c r="E9">
-        <v>0.4427954242818171</v>
+        <v>0.4695945155521747</v>
       </c>
       <c r="F9">
-        <v>0.2367654991933658</v>
+        <v>0.2071926657105166</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3533129028593847</v>
+        <v>0.2695677751263204</v>
       </c>
       <c r="C10">
-        <v>0.3533129028593847</v>
+        <v>0.2695677751263204</v>
       </c>
       <c r="D10">
-        <v>0.1644395682562605</v>
+        <v>0.07820422228561637</v>
       </c>
       <c r="E10">
-        <v>0.4055114896723155</v>
+        <v>0.2796501784115583</v>
       </c>
       <c r="F10">
-        <v>0.2149677985595936</v>
+        <v>0.09113811139470071</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3494951052803065</v>
+        <v>0.1878533956106533</v>
       </c>
       <c r="C11">
-        <v>0.3494951052803065</v>
+        <v>0.1878533956106533</v>
       </c>
       <c r="D11">
-        <v>0.1636482358169425</v>
+        <v>0.03528889824245262</v>
       </c>
       <c r="E11">
-        <v>0.404534591619731</v>
-      </c>
-      <c r="F11">
-        <v>0.2231629195060417</v>
+        <v>0.1878533956106533</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
